--- a/文档/3DMTracking1.0功能测试文档.xlsx
+++ b/文档/3DMTracking1.0功能测试文档.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheldon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9\Desktop\5\3D-Motion-Tracking-and-Output\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C519443-FE20-4E37-9AFF-DEA493318476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>模块编号</t>
   </si>
@@ -1793,14 +1792,18 @@
   </si>
   <si>
     <t>返回主菜单，再次点击姿态对比返回到姿态对比界面，并留有之前的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理时主界面会卡死，处理结束后才恢复，但处理结果正常，openmmd只能一次处理一个视频</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1859,6 +1862,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1946,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1987,6 +1997,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2005,8 +2018,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2101,23 +2114,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2153,23 +2149,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2345,11 +2324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2403,10 +2382,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="213.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="8">
@@ -2427,8 +2406,8 @@
       <c r="H2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>11</v>
+      <c r="I2" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>19</v>
@@ -2436,8 +2415,8 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8">
         <v>2</v>
       </c>
@@ -2465,8 +2444,8 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="163.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8">
         <v>3</v>
       </c>
@@ -2494,8 +2473,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8">
         <v>4</v>
       </c>
@@ -2523,8 +2502,8 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="213.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8">
         <v>5</v>
       </c>
@@ -2552,8 +2531,8 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="213.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8">
         <v>6</v>
       </c>
@@ -2581,8 +2560,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="189.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8">
         <v>7</v>
       </c>
@@ -2610,8 +2589,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8">
         <v>8</v>
       </c>
@@ -2639,8 +2618,8 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8">
         <v>9</v>
       </c>
@@ -2668,8 +2647,8 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8">
         <v>10</v>
       </c>
@@ -2697,8 +2676,8 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8">
         <v>11</v>
       </c>
@@ -2726,8 +2705,8 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8">
         <v>12</v>
       </c>
@@ -2755,8 +2734,8 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8">
         <v>13</v>
       </c>
@@ -2784,8 +2763,8 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8">
         <v>14</v>
       </c>
@@ -2814,12 +2793,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="8">
@@ -2847,8 +2826,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="8">
         <v>2</v>
       </c>
@@ -2859,7 +2838,7 @@
       <c r="F18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -2874,8 +2853,8 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="8">
         <v>3</v>
       </c>
@@ -2901,8 +2880,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="93" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8">
         <v>4</v>
       </c>
@@ -2928,8 +2907,8 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8">
         <v>5</v>
       </c>
